--- a/data/trans_bre/P1001-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>9.310476667975728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.241920860835595</v>
+        <v>1.241920860835594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1789329721778564</v>
@@ -649,7 +649,7 @@
         <v>0.573749241073306</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5619480209871252</v>
+        <v>0.5619480209871249</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.632020266503282</v>
+        <v>-3.435859879207487</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.296909946544362</v>
+        <v>5.132022362763938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.686969410719635</v>
+        <v>1.834320333075508</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9870311780227776</v>
+        <v>-0.910035445438355</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2964810252512435</v>
+        <v>-0.2772744869758258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4017438432031837</v>
+        <v>0.4003535816964691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1347359431795831</v>
+        <v>0.09265431472899606</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3178387347004042</v>
+        <v>-0.3373993053308046</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.430990142464294</v>
+        <v>7.23053342670412</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.3031905808059</v>
+        <v>17.72854817194593</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.1200103101564</v>
+        <v>16.04046256305899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.431246400931026</v>
+        <v>3.50227295783428</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.042181441065201</v>
+        <v>0.9568771968081262</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.401122550089049</v>
+        <v>2.303070079992109</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.260049461216896</v>
+        <v>1.23375061470207</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3.26295251335329</v>
+        <v>2.949452161834529</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.803175126182023</v>
+        <v>2.58394046600839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.954213489547528</v>
+        <v>2.969779685855349</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.578391931093726</v>
+        <v>3.561716610681088</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.83115844141458</v>
+        <v>-0.4684887882460071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2630287515288175</v>
+        <v>0.2511447849667078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2708552973931571</v>
+        <v>0.2729881811012794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8998666082787611</v>
+        <v>0.8389436682532085</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0964211738843751</v>
+        <v>-0.04986347034850891</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.65123088461072</v>
+        <v>11.11963302763691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.77254042559353</v>
+        <v>11.15307500846759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.886539537083983</v>
+        <v>9.73786551808092</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.714261571200768</v>
+        <v>6.387956454122598</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.6148240363202</v>
+        <v>1.743035861820661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.993931244130546</v>
+        <v>1.798187944368632</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.009319162454322</v>
+        <v>4.89535550456438</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.200000204190845</v>
+        <v>1.098580751903836</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.420929761376698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.129305264832889</v>
+        <v>3.129305264832891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5551443013967452</v>
@@ -849,7 +849,7 @@
         <v>1.609925217712426</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5690360832417488</v>
+        <v>0.5690360832417489</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.320391897991827</v>
+        <v>-1.157799030581956</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.871678533159769</v>
+        <v>1.747626917670856</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3402449152900518</v>
+        <v>0.5054573399484874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3197307671083332</v>
+        <v>-0.559883040887281</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4446711860700294</v>
+        <v>-0.425909379577353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2183193532647772</v>
+        <v>0.2062871827379485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03133276006795276</v>
+        <v>0.04915988971175776</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06089358721566217</v>
+        <v>-0.07832083107196887</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.060731897350188</v>
+        <v>4.214652225290648</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.51501145873485</v>
+        <v>10.17635007613303</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.495372213943451</v>
+        <v>6.572773720351946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.967053241682522</v>
+        <v>6.099391100946984</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.145928287361692</v>
+        <v>3.362608432545052</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.014498274293407</v>
+        <v>3.117050813075071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>5.081721243608484</v>
+        <v>6.155528120177843</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.461570255713316</v>
+        <v>1.609079809601169</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>11.61484904119877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.883960246525764</v>
+        <v>5.883960246525765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.896195797835398</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.931946185117282</v>
+        <v>2.025474680862321</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.63635575926254</v>
+        <v>11.44851071111285</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.457239824763533</v>
+        <v>6.496545095199853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.80053770647221</v>
+        <v>1.979050281595871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.417771713031392</v>
+        <v>0.2766064202526705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.312056890437322</v>
+        <v>1.532410293250831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5415430315316232</v>
+        <v>0.5377123119823221</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1710578554721109</v>
+        <v>0.1896377419377575</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.379359562651334</v>
+        <v>8.448018345783906</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.51021158937867</v>
+        <v>20.60834076541257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.91880097574774</v>
+        <v>17.07754766398996</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.09045151524102</v>
+        <v>10.51978179595101</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.652227639975835</v>
+        <v>5.435250510602294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.231640147660405</v>
+        <v>5.951321360450614</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.440441203422085</v>
+        <v>2.395388902272868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.429072152567918</v>
+        <v>2.813633157527325</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.922798152775322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.104397016127028</v>
+        <v>6.104397016127026</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08686024068174032</v>
@@ -1049,7 +1049,7 @@
         <v>0.6286231341359265</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>2.188926562645472</v>
+        <v>2.188926562645471</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.054639160910463</v>
+        <v>-4.103527086261058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.601273820177916</v>
+        <v>7.405266528361966</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.466054465413361</v>
+        <v>-2.355616019118318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.167114203798651</v>
+        <v>2.983827360967186</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4844255543266476</v>
+        <v>-0.4906906817293287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9989406942125169</v>
+        <v>0.8806051807464221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.264906172297428</v>
+        <v>-0.3413478117108866</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.6131529444250782</v>
+        <v>0.6063647901265822</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.906373790022664</v>
+        <v>5.678801216260585</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.6415131334223</v>
+        <v>18.88416918969694</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.546633052198278</v>
+        <v>7.410224834308623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.983297414203694</v>
+        <v>9.030006544071774</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.358456026343906</v>
+        <v>1.229607155723743</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7.350224436445023</v>
+        <v>6.690864019991245</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.834122057432489</v>
+        <v>2.794559614641678</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5.482305617048114</v>
+        <v>6.152969043344519</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.698155612994198</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.72723173319604</v>
+        <v>2.727231733196034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.368504164356156</v>
@@ -1149,7 +1149,7 @@
         <v>0.9189247368662367</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4919143910333377</v>
+        <v>0.4919143910333367</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7539678443021041</v>
+        <v>0.6554644421787745</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.269127981461057</v>
+        <v>-2.271844055651389</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.726264248879567</v>
+        <v>1.344659763403082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7544419716558546</v>
+        <v>-0.4715792503881131</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02005532881301859</v>
+        <v>0.06737595288967461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2368703485726224</v>
+        <v>-0.2226642708795905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1400858667574263</v>
+        <v>0.1165527159241946</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1077454578765467</v>
+        <v>-0.08409110921504617</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.101539608138062</v>
+        <v>6.225866428888332</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.238939434308687</v>
+        <v>7.945527311236924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.27349615775101</v>
+        <v>12.33971879698847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.77266882369899</v>
+        <v>6.174827917564317</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>12.36703612035219</v>
+        <v>12.88405398452631</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.42960069032937</v>
+        <v>1.343813273287453</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.419667717190202</v>
+        <v>2.411000712693926</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.423568164148358</v>
+        <v>1.515982632372774</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.884993959771551</v>
+        <v>1.800519926436547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4762966060440942</v>
+        <v>0.3423343622522381</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.152160566779938</v>
+        <v>3.09382205492642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.394055902421484</v>
+        <v>3.412929708982384</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2615376301495686</v>
+        <v>0.2246548165144813</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06080816270539256</v>
+        <v>0.03304718810223046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3642642019410938</v>
+        <v>0.3781511957627546</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3177852917293359</v>
+        <v>0.3283444787405358</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.738906287861634</v>
+        <v>7.777585360481176</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.752392122992733</v>
+        <v>5.920437817745149</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.74518768646592</v>
+        <v>9.999721519706757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.51468415347998</v>
+        <v>10.42305069910225</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.816014589888673</v>
+        <v>1.749952261610512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.542244105910102</v>
+        <v>1.574719301385687</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.926658160471275</v>
+        <v>2.073753986855044</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.5649598597072</v>
+        <v>1.673309921361323</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.52938961857767</v>
+        <v>-1.252586367081214</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.64616690928915</v>
+        <v>3.41719679965749</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.629660794829922</v>
+        <v>1.424297687734463</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.147261853690997</v>
+        <v>7.272018114738005</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1694031587783177</v>
+        <v>-0.1339119136550795</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3365386654581902</v>
+        <v>0.3073845356083181</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2693303010643494</v>
+        <v>0.2278460299724463</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.037254221052359</v>
+        <v>1.025753587954821</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.346385195877795</v>
+        <v>4.488013626777921</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>10.44173442277229</v>
+        <v>10.45717734293216</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.472488982876946</v>
+        <v>6.446187739977874</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.37289018914434</v>
+        <v>12.20891854989415</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6051106405058817</v>
+        <v>0.6516795408838948</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.393304622762744</v>
+        <v>1.423416977616008</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.976579008071371</v>
+        <v>1.979137355367447</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.650596958368819</v>
+        <v>2.702465138628177</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>6.126876153153074</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5.699618313141069</v>
+        <v>5.699618313141068</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5567431162707636</v>
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.183336130080215</v>
+        <v>2.00772480703452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.042378430622073</v>
+        <v>5.864049192570617</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.724857498988089</v>
+        <v>4.726626569405674</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.472691193526528</v>
+        <v>4.385407143818795</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3255947356206387</v>
+        <v>0.2976245173389047</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7544917176929568</v>
+        <v>0.771630208357274</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6857274805813939</v>
+        <v>0.7060583818495049</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.6870567085523334</v>
+        <v>0.6404044797219051</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.706651533429194</v>
+        <v>4.714833252232508</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.115510389394865</v>
+        <v>8.97937399931563</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.609804544079508</v>
+        <v>7.546458789809845</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.971358452805042</v>
+        <v>7.002725684010244</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8569524449237516</v>
+        <v>0.8606825940607949</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.440954389837261</v>
+        <v>1.400992680620727</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.344959282688276</v>
+        <v>1.377288159980686</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.290497311879757</v>
+        <v>1.272210400143302</v>
       </c>
     </row>
     <row r="31">
